--- a/Data_Learning_Prediction/For_Paper_Feature Selection CHN/FeatureSelection_CHN_GBR_841850_same-all.xlsx
+++ b/Data_Learning_Prediction/For_Paper_Feature Selection CHN/FeatureSelection_CHN_GBR_841850_same-all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat.ozemre\Desktop\Thesis_Project\Data_Learning_Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat.ozemre\Desktop\Thesis_Project\Data_Learning_Prediction\For_Paper_Feature Selection CHN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,13 +20,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="86">
   <si>
     <t>month</t>
   </si>
@@ -545,6 +545,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -604,6 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6640,32 +6644,32 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:J8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:J23" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="24">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item h="1" x="20"/>
         <item h="1" x="19"/>
         <item h="1" x="21"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
         <item h="1" x="18"/>
         <item h="1" x="22"/>
         <item t="default"/>
@@ -6693,7 +6697,25 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
     <i>
       <x v="9"/>
     </i>
@@ -6702,6 +6724,33 @@
     </i>
     <i>
       <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
   </rowItems>
   <colFields count="2">
@@ -6744,7 +6793,7 @@
     <dataField name="Average of value" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
-    <conditionalFormat priority="2">
+    <conditionalFormat type="all" priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="4">
@@ -6789,7 +6838,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat type="all" priority="1">
+    <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="4">
@@ -13570,10 +13619,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J8"/>
+  <dimension ref="A3:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13590,7 +13639,7 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -13598,7 +13647,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>82</v>
       </c>
@@ -13609,7 +13658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>84</v>
       </c>
@@ -13641,104 +13690,1070 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.8428000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.85499999999999987</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.80560000000000009</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.80899999999999994</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.80519999999999992</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.83119999999999994</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.80560000000000009</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.80899999999999994</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.80519999999999992</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.8428000000000001</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.85499999999999987</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.83119999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.84639999999999982</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.85119999999999985</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.82159999999999989</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.8206</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.8358000000000001</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.82159999999999989</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.8206</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.84639999999999982</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.85119999999999985</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0.8358000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.87840000000000007</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.83479999999999988</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.83719999999999994</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.85079999999999989</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.85239999999999994</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.83479999999999988</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.83719999999999994</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.87840000000000007</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.85079999999999989</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0.85239999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.84380000000000011</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.8515999999999998</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.83019999999999994</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.84599999999999986</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.8335999999999999</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.8515999999999998</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.83019999999999994</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.84380000000000011</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.84599999999999986</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0.8335999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.84740000000000004</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.83560000000000012</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.83319999999999994</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.85339999999999994</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.84639999999999982</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.84759999999999991</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.85339999999999994</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.84740000000000004</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.83560000000000012</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.83319999999999994</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.84639999999999982</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0.84759999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.86520000000000008</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.86719999999999986</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.87420000000000009</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.86480000000000012</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.86780000000000013</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.87040000000000006</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.87040000000000006</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.86480000000000012</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.86780000000000013</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.87040000000000006</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.86520000000000008</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.86719999999999986</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.87420000000000009</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.87040000000000006</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0.86539999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B12" s="2">
         <v>0.89480000000000004</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C12" s="2">
         <v>0.90500000000000003</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D12" s="2">
         <v>0.90480000000000005</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E12" s="2">
         <v>0.88659999999999994</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F12" s="2">
         <v>0.91460000000000008</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G12" s="2">
         <v>0.88260000000000005</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H12" s="2">
         <v>0.91460000000000008</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I12" s="2">
         <v>0.91840000000000011</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J12" s="2">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="L12" s="5">
+        <v>0.88659999999999994</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.91460000000000008</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.88260000000000005</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.91460000000000008</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.91840000000000011</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B13" s="2">
         <v>0.91280000000000006</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C13" s="2">
         <v>0.9214</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D13" s="2">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E13" s="2">
         <v>0.90399999999999991</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F13" s="2">
         <v>0.90199999999999991</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G13" s="2">
         <v>0.9032</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H13" s="2">
         <v>0.91600000000000004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I13" s="2">
         <v>0.91260000000000008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J13" s="2">
         <v>0.91660000000000008</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="L13" s="5">
+        <v>0.90399999999999991</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.90199999999999991</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.9032</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.91280000000000006</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.9214</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.91260000000000008</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0.91660000000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B14" s="2">
         <v>0.91460000000000008</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C14" s="2">
         <v>0.9224</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D14" s="2">
         <v>0.91980000000000006</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E14" s="2">
         <v>0.89600000000000013</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F14" s="2">
         <v>0.89060000000000006</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G14" s="2">
         <v>0.88479999999999992</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H14" s="2">
         <v>0.91220000000000001</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I14" s="2">
         <v>0.90500000000000003</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J14" s="2">
         <v>0.90600000000000003</v>
       </c>
+      <c r="L14" s="5">
+        <v>0.89600000000000013</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.89060000000000006</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.88479999999999992</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.91460000000000008</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.9224</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.91980000000000006</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.86780000000000013</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.85659999999999992</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.87059999999999993</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.85120000000000007</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.8548</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.86259999999999992</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.87479999999999991</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.85980000000000012</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.85120000000000007</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.8548</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.86780000000000013</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.85659999999999992</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.87059999999999993</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.86259999999999992</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.87479999999999991</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0.85980000000000012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.86720000000000008</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.85180000000000011</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.8640000000000001</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.873</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.85919999999999985</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.86720000000000008</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.85180000000000011</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.8640000000000001</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.873</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0.85919999999999985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.87940000000000007</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.88800000000000012</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.87259999999999993</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.87560000000000004</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.87960000000000016</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.87259999999999993</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.87940000000000007</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0.88800000000000012</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.87560000000000004</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0.87960000000000016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.86159999999999992</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.86340000000000006</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.84859999999999991</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.85819999999999985</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.86159999999999992</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0.86340000000000006</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.84859999999999991</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0.85819999999999985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.87200000000000011</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.87899999999999989</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.87800000000000011</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.87800000000000011</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.87200000000000011</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0.87899999999999989</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0.87439999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.9114000000000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.91620000000000013</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.91200000000000014</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.89059999999999984</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.89960000000000007</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.89059999999999984</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.9114000000000001</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.91620000000000013</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.91200000000000014</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0.89960000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.8902000000000001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.86020000000000008</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.8842000000000001</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.88659999999999994</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.89439999999999986</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.86020000000000008</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.8842000000000001</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.8902000000000001</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.88659999999999994</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0.89439999999999986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.92060000000000008</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.91880000000000006</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.8989999999999998</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.90520000000000012</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.91520000000000012</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.91560000000000008</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.8989999999999998</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.92060000000000008</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0.91880000000000006</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.90520000000000012</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.91520000000000012</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0.91560000000000008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.88659999999999994</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.87799999999999989</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.873</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.88659999999999994</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.87799999999999989</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0.873</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="B6:J8">
+  <conditionalFormatting pivot="1" sqref="B6:J23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -13750,7 +14765,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B6:J8">
+  <conditionalFormatting pivot="1" sqref="B6:J23">
     <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
